--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf15-Klb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf15-Klb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf15</t>
   </si>
   <si>
     <t>Klb</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H2">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I2">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J2">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7277973333333333</v>
+        <v>0.8414449999999999</v>
       </c>
       <c r="N2">
-        <v>2.183392</v>
+        <v>2.524335</v>
       </c>
       <c r="O2">
-        <v>0.2039375198308342</v>
+        <v>0.1954486635570916</v>
       </c>
       <c r="P2">
-        <v>0.2039375198308342</v>
+        <v>0.1954486635570916</v>
       </c>
       <c r="Q2">
-        <v>0.04475638221155555</v>
+        <v>0.05608230925</v>
       </c>
       <c r="R2">
-        <v>0.402807439904</v>
+        <v>0.5047407832499999</v>
       </c>
       <c r="S2">
-        <v>0.1491534999981411</v>
+        <v>0.05943349582496067</v>
       </c>
       <c r="T2">
-        <v>0.1491534999981411</v>
+        <v>0.05943349582496066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H3">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I3">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J3">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.186506</v>
       </c>
       <c r="O3">
-        <v>0.6712483190784837</v>
+        <v>0.5564209953690854</v>
       </c>
       <c r="P3">
-        <v>0.6712483190784837</v>
+        <v>0.5564209953690853</v>
       </c>
       <c r="Q3">
-        <v>0.1473129924913333</v>
+        <v>0.1596602083</v>
       </c>
       <c r="R3">
-        <v>1.325816932422</v>
+        <v>1.4369418747</v>
       </c>
       <c r="S3">
-        <v>0.4909299487483884</v>
+        <v>0.1692006704130216</v>
       </c>
       <c r="T3">
-        <v>0.4909299487483883</v>
+        <v>0.1692006704130215</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H4">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I4">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J4">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3957599999999999</v>
+        <v>0.9732973333333333</v>
       </c>
       <c r="N4">
-        <v>1.18728</v>
+        <v>2.919892</v>
       </c>
       <c r="O4">
-        <v>0.1108966866896795</v>
+        <v>0.226074981779773</v>
       </c>
       <c r="P4">
-        <v>0.1108966866896795</v>
+        <v>0.226074981779773</v>
       </c>
       <c r="Q4">
-        <v>0.02433752504</v>
+        <v>0.06487026726666667</v>
       </c>
       <c r="R4">
-        <v>0.21903772536</v>
+        <v>0.5838324053999999</v>
       </c>
       <c r="S4">
-        <v>0.08110635537631035</v>
+        <v>0.06874657642164612</v>
       </c>
       <c r="T4">
-        <v>0.08110635537631034</v>
+        <v>0.06874657642164611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06149566666666666</v>
+        <v>0.06665</v>
       </c>
       <c r="H5">
-        <v>0.184487</v>
+        <v>0.19995</v>
       </c>
       <c r="I5">
-        <v>0.7313686080024103</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="J5">
-        <v>0.7313686080024102</v>
+        <v>0.3040875017679506</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04966766666666667</v>
+        <v>0.09495266666666667</v>
       </c>
       <c r="N5">
-        <v>0.149003</v>
+        <v>0.284858</v>
       </c>
       <c r="O5">
-        <v>0.01391747440100256</v>
+        <v>0.02205535929405012</v>
       </c>
       <c r="P5">
-        <v>0.01391747440100256</v>
+        <v>0.02205535929405011</v>
       </c>
       <c r="Q5">
-        <v>0.003054346273444444</v>
+        <v>0.006328595233333334</v>
       </c>
       <c r="R5">
-        <v>0.027489116461</v>
+        <v>0.05695735709999999</v>
       </c>
       <c r="S5">
-        <v>0.01017880387957042</v>
+        <v>0.006706759108322252</v>
       </c>
       <c r="T5">
-        <v>0.01017880387957042</v>
+        <v>0.006706759108322249</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H6">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I6">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J6">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7277973333333333</v>
+        <v>0.8414449999999999</v>
       </c>
       <c r="N6">
-        <v>2.183392</v>
+        <v>2.524335</v>
       </c>
       <c r="O6">
-        <v>0.2039375198308342</v>
+        <v>0.1954486635570916</v>
       </c>
       <c r="P6">
-        <v>0.2039375198308342</v>
+        <v>0.1954486635570916</v>
       </c>
       <c r="Q6">
-        <v>0.01643900096711111</v>
+        <v>0.05174522123833333</v>
       </c>
       <c r="R6">
-        <v>0.147951008704</v>
+        <v>0.465706991145</v>
       </c>
       <c r="S6">
-        <v>0.05478401983269304</v>
+        <v>0.0548372460328058</v>
       </c>
       <c r="T6">
-        <v>0.05478401983269304</v>
+        <v>0.05483724603280579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H7">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I7">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J7">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>7.186506</v>
       </c>
       <c r="O7">
-        <v>0.6712483190784837</v>
+        <v>0.5564209953690854</v>
       </c>
       <c r="P7">
-        <v>0.6712483190784837</v>
+        <v>0.5564209953690853</v>
       </c>
       <c r="Q7">
-        <v>0.05410800217466667</v>
+        <v>0.1473129924913333</v>
       </c>
       <c r="R7">
-        <v>0.486972019572</v>
+        <v>1.325816932422</v>
       </c>
       <c r="S7">
-        <v>0.1803183703300953</v>
+        <v>0.1561156493247668</v>
       </c>
       <c r="T7">
-        <v>0.1803183703300953</v>
+        <v>0.1561156493247667</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H8">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I8">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J8">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3957599999999999</v>
+        <v>0.9732973333333333</v>
       </c>
       <c r="N8">
-        <v>1.18728</v>
+        <v>2.919892</v>
       </c>
       <c r="O8">
-        <v>0.1108966866896795</v>
+        <v>0.226074981779773</v>
       </c>
       <c r="P8">
-        <v>0.1108966866896795</v>
+        <v>0.226074981779773</v>
       </c>
       <c r="Q8">
-        <v>0.00893916304</v>
+        <v>0.05985356837822223</v>
       </c>
       <c r="R8">
-        <v>0.08045246736</v>
+        <v>0.538682115404</v>
       </c>
       <c r="S8">
-        <v>0.02979033131336919</v>
+        <v>0.06343010574793814</v>
       </c>
       <c r="T8">
-        <v>0.02979033131336919</v>
+        <v>0.06343010574793813</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02258733333333333</v>
+        <v>0.06149566666666667</v>
       </c>
       <c r="H9">
-        <v>0.067762</v>
+        <v>0.184487</v>
       </c>
       <c r="I9">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676865</v>
       </c>
       <c r="J9">
-        <v>0.2686313919975897</v>
+        <v>0.2805710974676864</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,524 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04966766666666667</v>
+        <v>0.09495266666666667</v>
       </c>
       <c r="N9">
-        <v>0.149003</v>
+        <v>0.284858</v>
       </c>
       <c r="O9">
-        <v>0.01391747440100256</v>
+        <v>0.02205535929405012</v>
       </c>
       <c r="P9">
-        <v>0.01391747440100256</v>
+        <v>0.02205535929405011</v>
       </c>
       <c r="Q9">
-        <v>0.001121860142888889</v>
+        <v>0.005839177538444445</v>
       </c>
       <c r="R9">
-        <v>0.010096741286</v>
+        <v>0.05255259784600001</v>
       </c>
       <c r="S9">
-        <v>0.003738670521432139</v>
+        <v>0.00618809636217578</v>
       </c>
       <c r="T9">
-        <v>0.003738670521432139</v>
+        <v>0.006188096362175779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.057558</v>
+      </c>
+      <c r="H10">
+        <v>0.172674</v>
+      </c>
+      <c r="I10">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J10">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8414449999999999</v>
+      </c>
+      <c r="N10">
+        <v>2.524335</v>
+      </c>
+      <c r="O10">
+        <v>0.1954486635570916</v>
+      </c>
+      <c r="P10">
+        <v>0.1954486635570916</v>
+      </c>
+      <c r="Q10">
+        <v>0.04843189130999999</v>
+      </c>
+      <c r="R10">
+        <v>0.4358870217899999</v>
+      </c>
+      <c r="S10">
+        <v>0.05132592877258944</v>
+      </c>
+      <c r="T10">
+        <v>0.05132592877258943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.057558</v>
+      </c>
+      <c r="H11">
+        <v>0.172674</v>
+      </c>
+      <c r="I11">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J11">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.395502</v>
+      </c>
+      <c r="N11">
+        <v>7.186506</v>
+      </c>
+      <c r="O11">
+        <v>0.5564209953690854</v>
+      </c>
+      <c r="P11">
+        <v>0.5564209953690853</v>
+      </c>
+      <c r="Q11">
+        <v>0.137880304116</v>
+      </c>
+      <c r="R11">
+        <v>1.240922737044</v>
+      </c>
+      <c r="S11">
+        <v>0.1461193126426511</v>
+      </c>
+      <c r="T11">
+        <v>0.1461193126426511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.057558</v>
+      </c>
+      <c r="H12">
+        <v>0.172674</v>
+      </c>
+      <c r="I12">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J12">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.9732973333333333</v>
+      </c>
+      <c r="N12">
+        <v>2.919892</v>
+      </c>
+      <c r="O12">
+        <v>0.226074981779773</v>
+      </c>
+      <c r="P12">
+        <v>0.226074981779773</v>
+      </c>
+      <c r="Q12">
+        <v>0.056021047912</v>
+      </c>
+      <c r="R12">
+        <v>0.504189431208</v>
+      </c>
+      <c r="S12">
+        <v>0.05936857382861378</v>
+      </c>
+      <c r="T12">
+        <v>0.05936857382861376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.057558</v>
+      </c>
+      <c r="H13">
+        <v>0.172674</v>
+      </c>
+      <c r="I13">
+        <v>0.2626056778208508</v>
+      </c>
+      <c r="J13">
+        <v>0.2626056778208507</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.09495266666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.284858</v>
+      </c>
+      <c r="O13">
+        <v>0.02205535929405012</v>
+      </c>
+      <c r="P13">
+        <v>0.02205535929405011</v>
+      </c>
+      <c r="Q13">
+        <v>0.005465285588</v>
+      </c>
+      <c r="R13">
+        <v>0.049187570292</v>
+      </c>
+      <c r="S13">
+        <v>0.005791862576996432</v>
+      </c>
+      <c r="T13">
+        <v>0.00579186257699643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.10043</v>
+      </c>
+      <c r="I14">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J14">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8414449999999999</v>
+      </c>
+      <c r="N14">
+        <v>2.524335</v>
+      </c>
+      <c r="O14">
+        <v>0.1954486635570916</v>
+      </c>
+      <c r="P14">
+        <v>0.1954486635570916</v>
+      </c>
+      <c r="Q14">
+        <v>0.02816877378333333</v>
+      </c>
+      <c r="R14">
+        <v>0.25351896405</v>
+      </c>
+      <c r="S14">
+        <v>0.02985199292673568</v>
+      </c>
+      <c r="T14">
+        <v>0.02985199292673568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.10043</v>
+      </c>
+      <c r="I15">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J15">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.395502</v>
+      </c>
+      <c r="N15">
+        <v>7.186506</v>
+      </c>
+      <c r="O15">
+        <v>0.5564209953690854</v>
+      </c>
+      <c r="P15">
+        <v>0.5564209953690853</v>
+      </c>
+      <c r="Q15">
+        <v>0.08019342195333332</v>
+      </c>
+      <c r="R15">
+        <v>0.7217407975799999</v>
+      </c>
+      <c r="S15">
+        <v>0.08498536298864595</v>
+      </c>
+      <c r="T15">
+        <v>0.08498536298864592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.10043</v>
+      </c>
+      <c r="I16">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J16">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9732973333333333</v>
+      </c>
+      <c r="N16">
+        <v>2.919892</v>
+      </c>
+      <c r="O16">
+        <v>0.226074981779773</v>
+      </c>
+      <c r="P16">
+        <v>0.226074981779773</v>
+      </c>
+      <c r="Q16">
+        <v>0.03258275039555555</v>
+      </c>
+      <c r="R16">
+        <v>0.29324475356</v>
+      </c>
+      <c r="S16">
+        <v>0.03452972578157499</v>
+      </c>
+      <c r="T16">
+        <v>0.03452972578157499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.03347666666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.10043</v>
+      </c>
+      <c r="I17">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="J17">
+        <v>0.1527357229435123</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.09495266666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.284858</v>
+      </c>
+      <c r="O17">
+        <v>0.02205535929405012</v>
+      </c>
+      <c r="P17">
+        <v>0.02205535929405011</v>
+      </c>
+      <c r="Q17">
+        <v>0.003178698771111111</v>
+      </c>
+      <c r="R17">
+        <v>0.02860828894</v>
+      </c>
+      <c r="S17">
+        <v>0.003368641246555657</v>
+      </c>
+      <c r="T17">
+        <v>0.003368641246555656</v>
       </c>
     </row>
   </sheetData>
